--- a/biology/Biologie cellulaire et moléculaire/Glossaire_de_biologie_cellulaire_et_moléculaire/Glossaire_de_biologie_cellulaire_et_moléculaire.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Glossaire_de_biologie_cellulaire_et_moléculaire/Glossaire_de_biologie_cellulaire_et_moléculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Glossaire_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Glossaire_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -519,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glossaire_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Glossaire_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +549,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Une cellule pouvant être transformée est dite compétente.</t>
         </is>
@@ -549,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Glossaire_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Glossaire_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,7 +581,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'adjectif endocellulaire signifie à l'intérieur de la cellule.
 L'adjectif exocellulaire signifie à l'extérieur de la cellule.</t>
@@ -580,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Glossaire_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Glossaire_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,7 +614,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La ligation est l'action d'une enzyme, l'ADN ligase, correspondant à la jointure de deux molécules d'ADN différentes.</t>
         </is>
@@ -610,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Glossaire_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Glossaire_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,7 +646,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La transformation est l'action d'introduction d'un ADN étranger dans un organisme vivant.</t>
         </is>
@@ -640,7 +660,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Glossaire_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Glossaire_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -658,7 +678,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Un vecteur est une molécule d'ADN permettant la conservation, l'amplification et la propagation de séquences nucléiques d'intérêt. Les vecteurs les plus connus sont les plasmides.</t>
         </is>
